--- a/ipc-webscraping/data/processed/tailoy/2025-11-16/tailoy_consolidado_2025-11-16_clean_filt.xlsx
+++ b/ipc-webscraping/data/processed/tailoy/2025-11-16/tailoy_consolidado_2025-11-16_clean_filt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1245"/>
+  <dimension ref="A1:P1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82068,700 +82068,700 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1167" t="n">
-        <v>16597003</v>
+        <v>23144</v>
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>Portaminas Pilot H-165 0.5 Mm Negro</t>
+          <t>Goma En Barra Ove 21 G</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1167" t="n">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="I1167" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J1167" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1167" t="n">
         <v>1</v>
       </c>
       <c r="L1167" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M1167" t="inlineStr">
         <is>
-          <t>Unidad</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1167" t="n">
-        <v>7.6</v>
+        <v>0.857143</v>
       </c>
       <c r="P1167" t="inlineStr">
         <is>
-          <t>Cantidad=1, sin conversión | tipo_producto=PORTAMINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1168" t="n">
-        <v>12794</v>
+        <v>23145</v>
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>Minas 0.5 Mm 2B Stabilo Blíster X 3 Und</t>
+          <t>Goma En Barra Ove 36 G</t>
         </is>
       </c>
       <c r="G1168" t="inlineStr">
         <is>
-          <t>STABILO</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1168" t="n">
-        <v>8.6</v>
+        <v>3.1</v>
       </c>
       <c r="I1168" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J1168" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1168" t="n">
         <v>1</v>
       </c>
       <c r="L1168" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="M1168" t="inlineStr">
         <is>
-          <t>X 3 und</t>
+          <t>36 g</t>
         </is>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1168" t="n">
-        <v>2.866667</v>
+        <v>0.861111</v>
       </c>
       <c r="P1168" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1169" t="n">
-        <v>16597001</v>
+        <v>33568</v>
       </c>
       <c r="F1169" t="inlineStr">
         <is>
-          <t>Portaminas Pilot H-165 0.5 Mm Azul</t>
+          <t>Cola Sintética Ove Con Aplicador 60 Ml</t>
         </is>
       </c>
       <c r="G1169" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1169" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="I1169" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J1169" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="K1169" t="n">
         <v>1</v>
       </c>
       <c r="L1169" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="M1169" t="inlineStr">
         <is>
-          <t>Unidad</t>
+          <t>60 ml</t>
         </is>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="O1169" t="n">
-        <v>7.6</v>
+        <v>2.166667</v>
       </c>
       <c r="P1169" t="inlineStr">
         <is>
-          <t>Cantidad=1, sin conversión | tipo_producto=PORTAMINAS</t>
+          <t>líquidos → por 100 ml</t>
         </is>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1170" t="n">
-        <v>16211007</v>
+        <v>39939</v>
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>Minas 0.5 Mm Hb Faber Castell X 24 Und</t>
+          <t>Goma En Barra Artesco Power Stick 40 G</t>
         </is>
       </c>
       <c r="G1170" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="I1170" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1170" t="n">
         <v>1</v>
       </c>
       <c r="L1170" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M1170" t="inlineStr">
         <is>
-          <t>X 24 und</t>
+          <t>40 g</t>
         </is>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1170" t="n">
-        <v>0.083333</v>
+        <v>1.325</v>
       </c>
       <c r="P1170" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1171" t="n">
-        <v>38313</v>
+        <v>2035</v>
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>Minas 0.7 Mm 2B Pilot Eno-7 X 3 Und</t>
+          <t>Cola Artesco Con Aplicador 57 G</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1171" t="n">
-        <v>15.6</v>
+        <v>2.1</v>
       </c>
       <c r="I1171" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="J1171" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1171" t="n">
         <v>1</v>
       </c>
       <c r="L1171" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="M1171" t="inlineStr">
         <is>
-          <t>X 3 und</t>
+          <t>57 g</t>
         </is>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1171" t="n">
-        <v>5.2</v>
+        <v>3.684211</v>
       </c>
       <c r="P1171" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1172" t="n">
-        <v>16211001</v>
+        <v>2173</v>
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>Minas 0.5 Mm 2B Faber Castell X 24 Und</t>
+          <t>Goma En Barra Artesco 21 G</t>
         </is>
       </c>
       <c r="G1172" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I1172" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J1172" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1172" t="n">
         <v>1</v>
       </c>
       <c r="L1172" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1172" t="inlineStr">
         <is>
-          <t>X 24 und</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1172" t="n">
-        <v>0.083333</v>
+        <v>1.047619</v>
       </c>
       <c r="P1172" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1173" t="n">
-        <v>12795</v>
+        <v>806</v>
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>Minas 0.7 Mm 2B Stabilo Blíster X 3 Und</t>
+          <t>Goma En Barra Faber Castell 10 G</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
         <is>
-          <t>STABILO</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1173" t="n">
-        <v>9.9</v>
+        <v>1.3</v>
       </c>
       <c r="I1173" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J1173" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1173" t="n">
         <v>1</v>
       </c>
       <c r="L1173" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M1173" t="inlineStr">
         <is>
-          <t>X 3 und</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1173" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="P1173" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1174" t="n">
-        <v>38312</v>
+        <v>74665</v>
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>Minas 0.5 Mm 2B Pilot Eno-5 X 3 Und</t>
+          <t>Goma En Barra Artesco Neón 21 G</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1174" t="n">
-        <v>15.4</v>
+        <v>2.9</v>
       </c>
       <c r="I1174" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J1174" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1174" t="n">
         <v>1</v>
       </c>
       <c r="L1174" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M1174" t="inlineStr">
         <is>
-          <t>X 3 und</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1174" t="n">
-        <v>5.133333</v>
+        <v>1.380952</v>
       </c>
       <c r="P1174" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1175" t="n">
-        <v>16597002</v>
+        <v>6649</v>
       </c>
       <c r="F1175" t="inlineStr">
         <is>
-          <t>Portaminas Pilot H-165 0.5 Mm Gris</t>
+          <t>Goma En Barra Vinifan 40 G</t>
         </is>
       </c>
       <c r="G1175" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>VINIFAN</t>
         </is>
       </c>
       <c r="H1175" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="I1175" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J1175" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1175" t="n">
         <v>1</v>
       </c>
       <c r="L1175" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M1175" t="inlineStr">
         <is>
-          <t>Unidad</t>
+          <t>40 g</t>
         </is>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1175" t="n">
-        <v>7.6</v>
+        <v>0.95</v>
       </c>
       <c r="P1175" t="inlineStr">
         <is>
-          <t>Cantidad=1, sin conversión | tipo_producto=PORTAMINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1176" t="n">
-        <v>1493</v>
+        <v>318</v>
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>Portaminas Faber Castell Grip-Matic 0.5 Mm Surtido</t>
+          <t>Cola David 1/4 Kg</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="H1176" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="I1176" t="n">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1176" t="n">
         <v>1</v>
       </c>
       <c r="L1176" t="n">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="M1176" t="inlineStr">
         <is>
-          <t>Unidad</t>
+          <t>4000 g</t>
         </is>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1176" t="n">
-        <v>4.9</v>
+        <v>0.0625</v>
       </c>
       <c r="P1176" t="inlineStr">
         <is>
-          <t>Cantidad=1, sin conversión | tipo_producto=PORTAMINAS</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -82787,23 +82787,23 @@
         </is>
       </c>
       <c r="E1177" t="n">
-        <v>23144</v>
+        <v>3335</v>
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>Goma En Barra Ove 21 G</t>
+          <t>Goma En Barra Artesco 40 G</t>
         </is>
       </c>
       <c r="G1177" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1177" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="I1177" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J1177" t="inlineStr">
         <is>
@@ -82814,11 +82814,11 @@
         <v>1</v>
       </c>
       <c r="L1177" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M1177" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>40 g</t>
         </is>
       </c>
       <c r="N1177" t="inlineStr">
@@ -82827,7 +82827,7 @@
         </is>
       </c>
       <c r="O1177" t="n">
-        <v>0.857143</v>
+        <v>0.9</v>
       </c>
       <c r="P1177" t="inlineStr">
         <is>
@@ -82853,27 +82853,27 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1178" t="n">
-        <v>23145</v>
+        <v>28823</v>
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>Goma En Barra Ove 36 G</t>
+          <t>Cola Artesco Con Aplicador 250 G</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1178" t="n">
         <v>3.1</v>
       </c>
       <c r="I1178" t="n">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="J1178" t="inlineStr">
         <is>
@@ -82884,24 +82884,24 @@
         <v>1</v>
       </c>
       <c r="L1178" t="n">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="M1178" t="inlineStr">
         <is>
-          <t>36 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1178" t="n">
-        <v>0.861111</v>
+        <v>1.24</v>
       </c>
       <c r="P1178" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -82927,51 +82927,51 @@
         </is>
       </c>
       <c r="E1179" t="n">
-        <v>33568</v>
+        <v>29702</v>
       </c>
       <c r="F1179" t="inlineStr">
         <is>
-          <t>Cola Sintética Ove Con Aplicador 60 Ml</t>
+          <t>Cola Vinifan 250 G</t>
         </is>
       </c>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>VINIFAN</t>
         </is>
       </c>
       <c r="H1179" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="I1179" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="J1179" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1179" t="n">
         <v>1</v>
       </c>
       <c r="L1179" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="M1179" t="inlineStr">
         <is>
-          <t>60 ml</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1179" t="n">
-        <v>2.166667</v>
+        <v>1.24</v>
       </c>
       <c r="P1179" t="inlineStr">
         <is>
-          <t>líquidos → por 100 ml</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -82997,11 +82997,11 @@
         </is>
       </c>
       <c r="E1180" t="n">
-        <v>39939</v>
+        <v>74667</v>
       </c>
       <c r="F1180" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Power Stick 40 G</t>
+          <t>Goma En Barra Artesco Frutti 21 G</t>
         </is>
       </c>
       <c r="G1180" t="inlineStr">
@@ -83010,10 +83010,10 @@
         </is>
       </c>
       <c r="H1180" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="I1180" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J1180" t="inlineStr">
         <is>
@@ -83024,11 +83024,11 @@
         <v>1</v>
       </c>
       <c r="L1180" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M1180" t="inlineStr">
         <is>
-          <t>40 g</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1180" t="inlineStr">
@@ -83037,7 +83037,7 @@
         </is>
       </c>
       <c r="O1180" t="n">
-        <v>1.325</v>
+        <v>1.285714</v>
       </c>
       <c r="P1180" t="inlineStr">
         <is>
@@ -83067,23 +83067,23 @@
         </is>
       </c>
       <c r="E1181" t="n">
-        <v>2035</v>
+        <v>2267</v>
       </c>
       <c r="F1181" t="inlineStr">
         <is>
-          <t>Cola Artesco Con Aplicador 57 G</t>
+          <t>Cola Layconsa Con Aplicador 250 G</t>
         </is>
       </c>
       <c r="G1181" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>LAYCONSA</t>
         </is>
       </c>
       <c r="H1181" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="I1181" t="n">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="J1181" t="inlineStr">
         <is>
@@ -83094,11 +83094,11 @@
         <v>1</v>
       </c>
       <c r="L1181" t="n">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="M1181" t="inlineStr">
         <is>
-          <t>57 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="N1181" t="inlineStr">
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="O1181" t="n">
-        <v>3.684211</v>
+        <v>1.24</v>
       </c>
       <c r="P1181" t="inlineStr">
         <is>
@@ -83137,11 +83137,11 @@
         </is>
       </c>
       <c r="E1182" t="n">
-        <v>2173</v>
+        <v>25131</v>
       </c>
       <c r="F1182" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco 21 G</t>
+          <t>Goma En Barra Artesco Triangular Sticky Magic 25 G</t>
         </is>
       </c>
       <c r="G1182" t="inlineStr">
@@ -83150,10 +83150,10 @@
         </is>
       </c>
       <c r="H1182" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="I1182" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1182" t="inlineStr">
         <is>
@@ -83164,11 +83164,11 @@
         <v>1</v>
       </c>
       <c r="L1182" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M1182" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="N1182" t="inlineStr">
@@ -83177,7 +83177,7 @@
         </is>
       </c>
       <c r="O1182" t="n">
-        <v>1.047619</v>
+        <v>1.64</v>
       </c>
       <c r="P1182" t="inlineStr">
         <is>
@@ -83203,15 +83203,15 @@
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1183" t="n">
-        <v>806</v>
+        <v>50503</v>
       </c>
       <c r="F1183" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell 10 G</t>
+          <t>Cola Faber Castell Pegabien Con Aplicador 225 G</t>
         </is>
       </c>
       <c r="G1183" t="inlineStr">
@@ -83220,10 +83220,10 @@
         </is>
       </c>
       <c r="H1183" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="I1183" t="n">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="J1183" t="inlineStr">
         <is>
@@ -83234,24 +83234,24 @@
         <v>1</v>
       </c>
       <c r="L1183" t="n">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="M1183" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1183" t="n">
-        <v>1.3</v>
+        <v>1.022222</v>
       </c>
       <c r="P1183" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -83277,20 +83277,20 @@
         </is>
       </c>
       <c r="E1184" t="n">
-        <v>74665</v>
+        <v>211</v>
       </c>
       <c r="F1184" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Neón 21 G</t>
+          <t>Goma En Barra Uhu Stick 21 G</t>
         </is>
       </c>
       <c r="G1184" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>UHU</t>
         </is>
       </c>
       <c r="H1184" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="I1184" t="n">
         <v>21</v>
@@ -83317,7 +83317,7 @@
         </is>
       </c>
       <c r="O1184" t="n">
-        <v>1.380952</v>
+        <v>3.285714</v>
       </c>
       <c r="P1184" t="inlineStr">
         <is>
@@ -83347,20 +83347,20 @@
         </is>
       </c>
       <c r="E1185" t="n">
-        <v>6649</v>
+        <v>753</v>
       </c>
       <c r="F1185" t="inlineStr">
         <is>
-          <t>Goma En Barra Vinifan 40 G</t>
+          <t>Goma En Barra Uhu Stick 40 G</t>
         </is>
       </c>
       <c r="G1185" t="inlineStr">
         <is>
-          <t>VINIFAN</t>
+          <t>UHU</t>
         </is>
       </c>
       <c r="H1185" t="n">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="I1185" t="n">
         <v>40</v>
@@ -83387,7 +83387,7 @@
         </is>
       </c>
       <c r="O1185" t="n">
-        <v>0.95</v>
+        <v>2.75</v>
       </c>
       <c r="P1185" t="inlineStr">
         <is>
@@ -83417,51 +83417,51 @@
         </is>
       </c>
       <c r="E1186" t="n">
-        <v>318</v>
+        <v>33570</v>
       </c>
       <c r="F1186" t="inlineStr">
         <is>
-          <t>Cola David 1/4 Kg</t>
+          <t>Cola Sintética Ove 250 Ml</t>
         </is>
       </c>
       <c r="G1186" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1186" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I1186" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="K1186" t="n">
         <v>1</v>
       </c>
       <c r="L1186" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="M1186" t="inlineStr">
         <is>
-          <t>4000 g</t>
+          <t>250 ml</t>
         </is>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="O1186" t="n">
-        <v>0.0625</v>
+        <v>0.92</v>
       </c>
       <c r="P1186" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>líquidos → por 100 ml</t>
         </is>
       </c>
     </row>
@@ -83487,23 +83487,23 @@
         </is>
       </c>
       <c r="E1187" t="n">
-        <v>3335</v>
+        <v>63146</v>
       </c>
       <c r="F1187" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco 40 G</t>
+          <t>Goma En Barra Faber Castell Fix 21 G</t>
         </is>
       </c>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1187" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="I1187" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J1187" t="inlineStr">
         <is>
@@ -83514,11 +83514,11 @@
         <v>1</v>
       </c>
       <c r="L1187" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M1187" t="inlineStr">
         <is>
-          <t>40 g</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1187" t="inlineStr">
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="O1187" t="n">
-        <v>0.9</v>
+        <v>1.047619</v>
       </c>
       <c r="P1187" t="inlineStr">
         <is>
@@ -83553,27 +83553,27 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1188" t="n">
-        <v>28823</v>
+        <v>210</v>
       </c>
       <c r="F1188" t="inlineStr">
         <is>
-          <t>Cola Artesco Con Aplicador 250 G</t>
+          <t>Goma En Barra Uhu Stick 8 G</t>
         </is>
       </c>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>UHU</t>
         </is>
       </c>
       <c r="H1188" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I1188" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="J1188" t="inlineStr">
         <is>
@@ -83584,24 +83584,24 @@
         <v>1</v>
       </c>
       <c r="L1188" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="M1188" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>8 g</t>
         </is>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1188" t="n">
-        <v>1.24</v>
+        <v>4.5</v>
       </c>
       <c r="P1188" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
@@ -83627,23 +83627,23 @@
         </is>
       </c>
       <c r="E1189" t="n">
-        <v>29702</v>
+        <v>2488</v>
       </c>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>Cola Vinifan 250 G</t>
+          <t>Cola Artesco Sticky Con Aplicador 85 G</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>VINIFAN</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1189" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I1189" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="J1189" t="inlineStr">
         <is>
@@ -83654,11 +83654,11 @@
         <v>1</v>
       </c>
       <c r="L1189" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="M1189" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>85 g</t>
         </is>
       </c>
       <c r="N1189" t="inlineStr">
@@ -83667,7 +83667,7 @@
         </is>
       </c>
       <c r="O1189" t="n">
-        <v>1.24</v>
+        <v>2.588235</v>
       </c>
       <c r="P1189" t="inlineStr">
         <is>
@@ -83693,27 +83693,27 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1190" t="n">
-        <v>74667</v>
+        <v>2612</v>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Frutti 21 G</t>
+          <t>Cola Pegafan Con Aplicador 250 G</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>PEGAFAN</t>
         </is>
       </c>
       <c r="H1190" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="I1190" t="n">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="J1190" t="inlineStr">
         <is>
@@ -83724,24 +83724,24 @@
         <v>1</v>
       </c>
       <c r="L1190" t="n">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="M1190" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1190" t="n">
-        <v>1.285714</v>
+        <v>1.4</v>
       </c>
       <c r="P1190" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -83763,27 +83763,27 @@
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1191" t="n">
-        <v>2267</v>
+        <v>55463</v>
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>Cola Layconsa Con Aplicador 250 G</t>
+          <t>Goma En Barra Faber Castell 40 G</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>LAYCONSA</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1191" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I1191" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="J1191" t="inlineStr">
         <is>
@@ -83794,24 +83794,24 @@
         <v>1</v>
       </c>
       <c r="L1191" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="M1191" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>40 g</t>
         </is>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1191" t="n">
-        <v>1.24</v>
+        <v>0.95</v>
       </c>
       <c r="P1191" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
@@ -83833,27 +83833,27 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1192" t="n">
-        <v>25131</v>
+        <v>29701</v>
       </c>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Triangular Sticky Magic 25 G</t>
+          <t>Cola Vinifan 120 G</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>VINIFAN</t>
         </is>
       </c>
       <c r="H1192" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="I1192" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="J1192" t="inlineStr">
         <is>
@@ -83864,24 +83864,24 @@
         <v>1</v>
       </c>
       <c r="L1192" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="M1192" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>120 g</t>
         </is>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1192" t="n">
-        <v>1.64</v>
+        <v>1.833333</v>
       </c>
       <c r="P1192" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -83907,51 +83907,51 @@
         </is>
       </c>
       <c r="E1193" t="n">
-        <v>50503</v>
+        <v>33569</v>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>Cola Faber Castell Pegabien Con Aplicador 225 G</t>
+          <t>Cola Sintética Ove 125 Ml</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1193" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="I1193" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="J1193" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="K1193" t="n">
         <v>1</v>
       </c>
       <c r="L1193" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="M1193" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>125 ml</t>
         </is>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="O1193" t="n">
-        <v>1.022222</v>
+        <v>1.36</v>
       </c>
       <c r="P1193" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>líquidos → por 100 ml</t>
         </is>
       </c>
     </row>
@@ -83977,23 +83977,23 @@
         </is>
       </c>
       <c r="E1194" t="n">
-        <v>211</v>
+        <v>74666</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>Goma En Barra Uhu Stick 21 G</t>
+          <t>Goma En Barra Artesco Frutti 8 G X 4 Und</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>UHU</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1194" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="I1194" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J1194" t="inlineStr">
         <is>
@@ -84001,14 +84001,14 @@
         </is>
       </c>
       <c r="K1194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L1194" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M1194" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>4 x 8 g</t>
         </is>
       </c>
       <c r="N1194" t="inlineStr">
@@ -84017,7 +84017,7 @@
         </is>
       </c>
       <c r="O1194" t="n">
-        <v>3.285714</v>
+        <v>2.5</v>
       </c>
       <c r="P1194" t="inlineStr">
         <is>
@@ -84047,23 +84047,23 @@
         </is>
       </c>
       <c r="E1195" t="n">
-        <v>753</v>
+        <v>65703</v>
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>Goma En Barra Uhu Stick 40 G</t>
+          <t>Goma En Barra Faber Castell Verde Pastel 10 G</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>UHU</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1195" t="n">
-        <v>11</v>
+        <v>1.6</v>
       </c>
       <c r="I1195" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J1195" t="inlineStr">
         <is>
@@ -84074,11 +84074,11 @@
         <v>1</v>
       </c>
       <c r="L1195" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M1195" t="inlineStr">
         <is>
-          <t>40 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="N1195" t="inlineStr">
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="O1195" t="n">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="P1195" t="inlineStr">
         <is>
@@ -84117,51 +84117,51 @@
         </is>
       </c>
       <c r="E1196" t="n">
-        <v>33570</v>
+        <v>320</v>
       </c>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>Cola Sintética Ove 250 Ml</t>
+          <t>Cola David 1 Kg</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="H1196" t="n">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="I1196" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J1196" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1196" t="n">
         <v>1</v>
       </c>
       <c r="L1196" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M1196" t="inlineStr">
         <is>
-          <t>250 ml</t>
+          <t>1000 g</t>
         </is>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1196" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="P1196" t="inlineStr">
         <is>
-          <t>líquidos → por 100 ml</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -84183,27 +84183,27 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1197" t="n">
-        <v>63146</v>
+        <v>1566</v>
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell Fix 21 G</t>
+          <t>Cola Pegafan 200 G</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>PEGAFAN</t>
         </is>
       </c>
       <c r="H1197" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="I1197" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="J1197" t="inlineStr">
         <is>
@@ -84214,24 +84214,24 @@
         <v>1</v>
       </c>
       <c r="L1197" t="n">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="M1197" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1197" t="n">
-        <v>1.047619</v>
+        <v>1.85</v>
       </c>
       <c r="P1197" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -84253,27 +84253,27 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1198" t="n">
-        <v>210</v>
+        <v>2034</v>
       </c>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>Goma En Barra Uhu Stick 8 G</t>
+          <t>Cola Artesco Con Aplicador 240 G</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>UHU</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1198" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="I1198" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="J1198" t="inlineStr">
         <is>
@@ -84284,24 +84284,24 @@
         <v>1</v>
       </c>
       <c r="L1198" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="M1198" t="inlineStr">
         <is>
-          <t>8 g</t>
+          <t>240 g</t>
         </is>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1198" t="n">
-        <v>4.5</v>
+        <v>1.083333</v>
       </c>
       <c r="P1198" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -84327,23 +84327,23 @@
         </is>
       </c>
       <c r="E1199" t="n">
-        <v>2488</v>
+        <v>3367</v>
       </c>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>Cola Artesco Sticky Con Aplicador 85 G</t>
+          <t>Cola Pegafan Con Aplicador 130 G</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>PEGAFAN</t>
         </is>
       </c>
       <c r="H1199" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I1199" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="J1199" t="inlineStr">
         <is>
@@ -84354,11 +84354,11 @@
         <v>1</v>
       </c>
       <c r="L1199" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="M1199" t="inlineStr">
         <is>
-          <t>85 g</t>
+          <t>130 g</t>
         </is>
       </c>
       <c r="N1199" t="inlineStr">
@@ -84367,7 +84367,7 @@
         </is>
       </c>
       <c r="O1199" t="n">
-        <v>2.588235</v>
+        <v>1.923077</v>
       </c>
       <c r="P1199" t="inlineStr">
         <is>
@@ -84397,23 +84397,23 @@
         </is>
       </c>
       <c r="E1200" t="n">
-        <v>2612</v>
+        <v>29700</v>
       </c>
       <c r="F1200" t="inlineStr">
         <is>
-          <t>Cola Pegafan Con Aplicador 250 G</t>
+          <t>Cola Vinifan 60 G</t>
         </is>
       </c>
       <c r="G1200" t="inlineStr">
         <is>
-          <t>PEGAFAN</t>
+          <t>VINIFAN</t>
         </is>
       </c>
       <c r="H1200" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="J1200" t="inlineStr">
         <is>
@@ -84424,11 +84424,11 @@
         <v>1</v>
       </c>
       <c r="L1200" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="M1200" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>60 g</t>
         </is>
       </c>
       <c r="N1200" t="inlineStr">
@@ -84437,7 +84437,7 @@
         </is>
       </c>
       <c r="O1200" t="n">
-        <v>1.4</v>
+        <v>3.333333</v>
       </c>
       <c r="P1200" t="inlineStr">
         <is>
@@ -84467,23 +84467,23 @@
         </is>
       </c>
       <c r="E1201" t="n">
-        <v>55463</v>
+        <v>23143</v>
       </c>
       <c r="F1201" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell 40 G</t>
+          <t>Goma En Barra Ove 8 G</t>
         </is>
       </c>
       <c r="G1201" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1201" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="I1201" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J1201" t="inlineStr">
         <is>
@@ -84494,11 +84494,11 @@
         <v>1</v>
       </c>
       <c r="L1201" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M1201" t="inlineStr">
         <is>
-          <t>40 g</t>
+          <t>8 g</t>
         </is>
       </c>
       <c r="N1201" t="inlineStr">
@@ -84507,7 +84507,7 @@
         </is>
       </c>
       <c r="O1201" t="n">
-        <v>0.95</v>
+        <v>1.375</v>
       </c>
       <c r="P1201" t="inlineStr">
         <is>
@@ -84533,15 +84533,15 @@
       </c>
       <c r="D1202" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1202" t="n">
-        <v>29701</v>
+        <v>6648</v>
       </c>
       <c r="F1202" t="inlineStr">
         <is>
-          <t>Cola Vinifan 120 G</t>
+          <t>Goma En Barra Vinifan 21 G</t>
         </is>
       </c>
       <c r="G1202" t="inlineStr">
@@ -84550,10 +84550,10 @@
         </is>
       </c>
       <c r="H1202" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I1202" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="J1202" t="inlineStr">
         <is>
@@ -84564,24 +84564,24 @@
         <v>1</v>
       </c>
       <c r="L1202" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="M1202" t="inlineStr">
         <is>
-          <t>120 g</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1202" t="n">
-        <v>1.833333</v>
+        <v>1.095238</v>
       </c>
       <c r="P1202" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
@@ -84603,755 +84603,755 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1203" t="n">
-        <v>33569</v>
+        <v>65702</v>
       </c>
       <c r="F1203" t="inlineStr">
         <is>
-          <t>Cola Sintética Ove 125 Ml</t>
+          <t>Goma En Barra Faber Castell Rosa Pastel 10 G</t>
         </is>
       </c>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1203" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="I1203" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="J1203" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1203" t="n">
         <v>1</v>
       </c>
       <c r="L1203" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="M1203" t="inlineStr">
         <is>
-          <t>125 ml</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1203" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="P1203" t="inlineStr">
         <is>
-          <t>líquidos → por 100 ml</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1204" t="n">
-        <v>74666</v>
+        <v>7674</v>
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Frutti 8 G X 4 Und</t>
+          <t>Calculadora Científica Casio Fx-991La Plus</t>
         </is>
       </c>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1204" t="n">
-        <v>8</v>
+        <v>110.9</v>
       </c>
       <c r="I1204" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1204" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1204" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L1204" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M1204" t="inlineStr">
         <is>
-          <t>4 x 8 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1204" t="n">
-        <v>2.5</v>
+        <v>110.9</v>
       </c>
       <c r="P1204" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1205" t="n">
-        <v>65703</v>
+        <v>44596001</v>
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell Verde Pastel 10 G</t>
+          <t>Calculadora Casio Ms-7Uc Azul</t>
         </is>
       </c>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1205" t="n">
-        <v>1.6</v>
+        <v>29.9</v>
       </c>
       <c r="I1205" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J1205" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1205" t="n">
         <v>1</v>
       </c>
       <c r="L1205" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M1205" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1205" t="n">
-        <v>1.6</v>
+        <v>29.9</v>
       </c>
       <c r="P1205" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1206" t="n">
-        <v>320</v>
+        <v>44596002</v>
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>Cola David 1 Kg</t>
+          <t>Calculadora Casio Ms-7Uc-Pk Rosa</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1206" t="n">
-        <v>10</v>
+        <v>29.9</v>
       </c>
       <c r="I1206" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J1206" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1206" t="n">
         <v>1</v>
       </c>
       <c r="L1206" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M1206" t="inlineStr">
         <is>
-          <t>1000 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1206" t="n">
-        <v>1</v>
+        <v>29.9</v>
       </c>
       <c r="P1206" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1207" t="n">
-        <v>1566</v>
+        <v>1003</v>
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>Cola Pegafan 200 G</t>
+          <t>Calculadora Científica Casio Fx-82Ms-2</t>
         </is>
       </c>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>PEGAFAN</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1207" t="n">
-        <v>3.7</v>
+        <v>53.9</v>
       </c>
       <c r="I1207" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="J1207" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1207" t="n">
         <v>1</v>
       </c>
       <c r="L1207" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="M1207" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1207" t="n">
-        <v>1.85</v>
+        <v>53.9</v>
       </c>
       <c r="P1207" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1208" t="n">
-        <v>2034</v>
+        <v>1027</v>
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>Cola Artesco Con Aplicador 240 G</t>
+          <t>Calculadora De Escritorio Casio Ms-80S/B/F</t>
         </is>
       </c>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1208" t="n">
-        <v>2.6</v>
+        <v>42.9</v>
       </c>
       <c r="I1208" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="J1208" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1208" t="n">
         <v>1</v>
       </c>
       <c r="L1208" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="M1208" t="inlineStr">
         <is>
-          <t>240 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1208" t="n">
-        <v>1.083333</v>
+        <v>42.9</v>
       </c>
       <c r="P1208" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1209" t="n">
-        <v>3367</v>
+        <v>4936</v>
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>Cola Pegafan Con Aplicador 130 G</t>
+          <t>Calculadora Casio Mx-8B 8 Dígitos</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>PEGAFAN</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1209" t="n">
-        <v>2.5</v>
+        <v>25.9</v>
       </c>
       <c r="I1209" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="J1209" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1209" t="n">
         <v>1</v>
       </c>
       <c r="L1209" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="M1209" t="inlineStr">
         <is>
-          <t>130 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1209" t="n">
-        <v>1.923077</v>
+        <v>25.9</v>
       </c>
       <c r="P1209" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1210" t="n">
-        <v>29700</v>
+        <v>540</v>
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>Cola Vinifan 60 G</t>
+          <t>Calculadora Casio Mx-12S 12 Dígitos</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>VINIFAN</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
+        <v>30.9</v>
       </c>
       <c r="I1210" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J1210" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1210" t="n">
         <v>1</v>
       </c>
       <c r="L1210" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="M1210" t="inlineStr">
         <is>
-          <t>60 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1210" t="n">
-        <v>3.333333</v>
+        <v>30.9</v>
       </c>
       <c r="P1210" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1211" t="n">
-        <v>23143</v>
+        <v>7672</v>
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>Goma En Barra Ove 8 G</t>
+          <t>Calculadora Científica Casio Fx-82La Plus-2 Bu</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1211" t="n">
-        <v>1.1</v>
+        <v>59.9</v>
       </c>
       <c r="I1211" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1211" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1211" t="n">
         <v>1</v>
       </c>
       <c r="L1211" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M1211" t="inlineStr">
         <is>
-          <t>8 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1211" t="n">
-        <v>1.375</v>
+        <v>59.9</v>
       </c>
       <c r="P1211" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1212" t="n">
-        <v>6648</v>
+        <v>1029</v>
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>Goma En Barra Vinifan 21 G</t>
+          <t>Calculadora De Escritorio Casio Ms-120Ms/Bm/Fm</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
         <is>
-          <t>VINIFAN</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1212" t="n">
-        <v>2.3</v>
+        <v>57.9</v>
       </c>
       <c r="I1212" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J1212" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1212" t="n">
         <v>1</v>
       </c>
       <c r="L1212" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="M1212" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1212" t="n">
-        <v>1.095238</v>
+        <v>57.9</v>
       </c>
       <c r="P1212" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1213" t="n">
-        <v>65702</v>
+        <v>30568</v>
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell Rosa Pastel 10 G</t>
+          <t>Calculadora Tipo Portátil Casio Hl-820Lv We Con Tapa</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1213" t="n">
-        <v>1.6</v>
+        <v>16.9</v>
       </c>
       <c r="I1213" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J1213" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1213" t="n">
         <v>1</v>
       </c>
       <c r="L1213" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M1213" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1213" t="n">
-        <v>1.6</v>
+        <v>16.9</v>
       </c>
       <c r="P1213" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
@@ -85377,11 +85377,11 @@
         </is>
       </c>
       <c r="E1214" t="n">
-        <v>7674</v>
+        <v>30571</v>
       </c>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>Calculadora Científica Casio Fx-991La Plus</t>
+          <t>Calculadora De Escritorio Casio Mw-8V We</t>
         </is>
       </c>
       <c r="G1214" t="inlineStr">
@@ -85390,7 +85390,7 @@
         </is>
       </c>
       <c r="H1214" t="n">
-        <v>110.9</v>
+        <v>27.9</v>
       </c>
       <c r="I1214" t="n">
         <v>1</v>
@@ -85417,7 +85417,7 @@
         </is>
       </c>
       <c r="O1214" t="n">
-        <v>110.9</v>
+        <v>27.9</v>
       </c>
       <c r="P1214" t="inlineStr">
         <is>
@@ -85447,11 +85447,11 @@
         </is>
       </c>
       <c r="E1215" t="n">
-        <v>44596001</v>
+        <v>30572</v>
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-7Uc Azul</t>
+          <t>Calculadora Tipo Portátil Casio Lc-401Lv We-Bk-Dp</t>
         </is>
       </c>
       <c r="G1215" t="inlineStr">
@@ -85460,7 +85460,7 @@
         </is>
       </c>
       <c r="H1215" t="n">
-        <v>29.9</v>
+        <v>22.9</v>
       </c>
       <c r="I1215" t="n">
         <v>1</v>
@@ -85487,7 +85487,7 @@
         </is>
       </c>
       <c r="O1215" t="n">
-        <v>29.9</v>
+        <v>22.9</v>
       </c>
       <c r="P1215" t="inlineStr">
         <is>
@@ -85517,11 +85517,11 @@
         </is>
       </c>
       <c r="E1216" t="n">
-        <v>44596002</v>
+        <v>44595003</v>
       </c>
       <c r="F1216" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-7Uc-Pk Rosa</t>
+          <t>Calculadora Casio Ms-20Uc Verde</t>
         </is>
       </c>
       <c r="G1216" t="inlineStr">
@@ -85530,7 +85530,7 @@
         </is>
       </c>
       <c r="H1216" t="n">
-        <v>29.9</v>
+        <v>41.9</v>
       </c>
       <c r="I1216" t="n">
         <v>1</v>
@@ -85557,7 +85557,7 @@
         </is>
       </c>
       <c r="O1216" t="n">
-        <v>29.9</v>
+        <v>41.9</v>
       </c>
       <c r="P1216" t="inlineStr">
         <is>
@@ -85587,11 +85587,11 @@
         </is>
       </c>
       <c r="E1217" t="n">
-        <v>1003</v>
+        <v>30551003</v>
       </c>
       <c r="F1217" t="inlineStr">
         <is>
-          <t>Calculadora Científica Casio Fx-82Ms-2</t>
+          <t>Calculadora Casio Hl-815L 8 Dígitos Rosado</t>
         </is>
       </c>
       <c r="G1217" t="inlineStr">
@@ -85600,7 +85600,7 @@
         </is>
       </c>
       <c r="H1217" t="n">
-        <v>53.9</v>
+        <v>16.9</v>
       </c>
       <c r="I1217" t="n">
         <v>1</v>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="O1217" t="n">
-        <v>53.9</v>
+        <v>16.9</v>
       </c>
       <c r="P1217" t="inlineStr">
         <is>
@@ -85657,11 +85657,11 @@
         </is>
       </c>
       <c r="E1218" t="n">
-        <v>1027</v>
+        <v>30551001</v>
       </c>
       <c r="F1218" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Ms-80S/B/F</t>
+          <t>Calculadora Casio Hl-815L 8 Dígitos Wengue</t>
         </is>
       </c>
       <c r="G1218" t="inlineStr">
@@ -85670,7 +85670,7 @@
         </is>
       </c>
       <c r="H1218" t="n">
-        <v>42.9</v>
+        <v>16.9</v>
       </c>
       <c r="I1218" t="n">
         <v>1</v>
@@ -85697,7 +85697,7 @@
         </is>
       </c>
       <c r="O1218" t="n">
-        <v>42.9</v>
+        <v>16.9</v>
       </c>
       <c r="P1218" t="inlineStr">
         <is>
@@ -85727,11 +85727,11 @@
         </is>
       </c>
       <c r="E1219" t="n">
-        <v>4936</v>
+        <v>44595001</v>
       </c>
       <c r="F1219" t="inlineStr">
         <is>
-          <t>Calculadora Casio Mx-8B 8 Dígitos</t>
+          <t>Calculadora De Escritorio Casio Ms-20Uc-Bu Azul</t>
         </is>
       </c>
       <c r="G1219" t="inlineStr">
@@ -85740,7 +85740,7 @@
         </is>
       </c>
       <c r="H1219" t="n">
-        <v>25.9</v>
+        <v>41.9</v>
       </c>
       <c r="I1219" t="n">
         <v>1</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="O1219" t="n">
-        <v>25.9</v>
+        <v>41.9</v>
       </c>
       <c r="P1219" t="inlineStr">
         <is>
@@ -85797,11 +85797,11 @@
         </is>
       </c>
       <c r="E1220" t="n">
-        <v>540</v>
+        <v>44595004</v>
       </c>
       <c r="F1220" t="inlineStr">
         <is>
-          <t>Calculadora Casio Mx-12S 12 Dígitos</t>
+          <t>Calculadora Casio Ms-20Uc Verde Limón</t>
         </is>
       </c>
       <c r="G1220" t="inlineStr">
@@ -85810,7 +85810,7 @@
         </is>
       </c>
       <c r="H1220" t="n">
-        <v>30.9</v>
+        <v>41.9</v>
       </c>
       <c r="I1220" t="n">
         <v>1</v>
@@ -85837,7 +85837,7 @@
         </is>
       </c>
       <c r="O1220" t="n">
-        <v>30.9</v>
+        <v>41.9</v>
       </c>
       <c r="P1220" t="inlineStr">
         <is>
@@ -85867,11 +85867,11 @@
         </is>
       </c>
       <c r="E1221" t="n">
-        <v>7672</v>
+        <v>44596003</v>
       </c>
       <c r="F1221" t="inlineStr">
         <is>
-          <t>Calculadora Científica Casio Fx-82La Plus-2 Bu</t>
+          <t>Calculadora Casio Ms-7Uc Verde Limón</t>
         </is>
       </c>
       <c r="G1221" t="inlineStr">
@@ -85880,7 +85880,7 @@
         </is>
       </c>
       <c r="H1221" t="n">
-        <v>59.9</v>
+        <v>29.9</v>
       </c>
       <c r="I1221" t="n">
         <v>1</v>
@@ -85907,7 +85907,7 @@
         </is>
       </c>
       <c r="O1221" t="n">
-        <v>59.9</v>
+        <v>29.9</v>
       </c>
       <c r="P1221" t="inlineStr">
         <is>
@@ -85937,11 +85937,11 @@
         </is>
       </c>
       <c r="E1222" t="n">
-        <v>1029</v>
+        <v>924</v>
       </c>
       <c r="F1222" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Ms-120Ms/Bm/Fm</t>
+          <t>Calculadora De Escritorio Casio Ms-100 Bm/Fm</t>
         </is>
       </c>
       <c r="G1222" t="inlineStr">
@@ -85950,7 +85950,7 @@
         </is>
       </c>
       <c r="H1222" t="n">
-        <v>57.9</v>
+        <v>50.9</v>
       </c>
       <c r="I1222" t="n">
         <v>1</v>
@@ -85977,7 +85977,7 @@
         </is>
       </c>
       <c r="O1222" t="n">
-        <v>57.9</v>
+        <v>50.9</v>
       </c>
       <c r="P1222" t="inlineStr">
         <is>
@@ -86007,11 +86007,11 @@
         </is>
       </c>
       <c r="E1223" t="n">
-        <v>30568</v>
+        <v>936</v>
       </c>
       <c r="F1223" t="inlineStr">
         <is>
-          <t>Calculadora Tipo Portátil Casio Hl-820Lv We Con Tapa</t>
+          <t>Calculadora Casio Hl-4 8 Dígitos</t>
         </is>
       </c>
       <c r="G1223" t="inlineStr">
@@ -86020,7 +86020,7 @@
         </is>
       </c>
       <c r="H1223" t="n">
-        <v>16.9</v>
+        <v>11.9</v>
       </c>
       <c r="I1223" t="n">
         <v>1</v>
@@ -86047,7 +86047,7 @@
         </is>
       </c>
       <c r="O1223" t="n">
-        <v>16.9</v>
+        <v>11.9</v>
       </c>
       <c r="P1223" t="inlineStr">
         <is>
@@ -86077,11 +86077,11 @@
         </is>
       </c>
       <c r="E1224" t="n">
-        <v>30571</v>
+        <v>1198</v>
       </c>
       <c r="F1224" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Mw-8V We</t>
+          <t>Calculadora Casio Lc-160Lv 8 Dígitos</t>
         </is>
       </c>
       <c r="G1224" t="inlineStr">
@@ -86090,7 +86090,7 @@
         </is>
       </c>
       <c r="H1224" t="n">
-        <v>27.9</v>
+        <v>14.9</v>
       </c>
       <c r="I1224" t="n">
         <v>1</v>
@@ -86117,7 +86117,7 @@
         </is>
       </c>
       <c r="O1224" t="n">
-        <v>27.9</v>
+        <v>14.9</v>
       </c>
       <c r="P1224" t="inlineStr">
         <is>
@@ -86147,11 +86147,11 @@
         </is>
       </c>
       <c r="E1225" t="n">
-        <v>30572</v>
+        <v>4935</v>
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>Calculadora Tipo Portátil Casio Lc-401Lv We-Bk-Dp</t>
+          <t>Calculadora Casio Mw-8V 8 Dígitos</t>
         </is>
       </c>
       <c r="G1225" t="inlineStr">
@@ -86160,7 +86160,7 @@
         </is>
       </c>
       <c r="H1225" t="n">
-        <v>22.9</v>
+        <v>28.9</v>
       </c>
       <c r="I1225" t="n">
         <v>1</v>
@@ -86187,7 +86187,7 @@
         </is>
       </c>
       <c r="O1225" t="n">
-        <v>22.9</v>
+        <v>28.9</v>
       </c>
       <c r="P1225" t="inlineStr">
         <is>
@@ -86217,11 +86217,11 @@
         </is>
       </c>
       <c r="E1226" t="n">
-        <v>44595003</v>
+        <v>30567</v>
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-20Uc Verde</t>
+          <t>Calculadora De Escritorio Casio Mx-12S Blanco</t>
         </is>
       </c>
       <c r="G1226" t="inlineStr">
@@ -86230,7 +86230,7 @@
         </is>
       </c>
       <c r="H1226" t="n">
-        <v>41.9</v>
+        <v>30.9</v>
       </c>
       <c r="I1226" t="n">
         <v>1</v>
@@ -86257,7 +86257,7 @@
         </is>
       </c>
       <c r="O1226" t="n">
-        <v>41.9</v>
+        <v>30.9</v>
       </c>
       <c r="P1226" t="inlineStr">
         <is>
@@ -86287,11 +86287,11 @@
         </is>
       </c>
       <c r="E1227" t="n">
-        <v>30551003</v>
+        <v>955</v>
       </c>
       <c r="F1227" t="inlineStr">
         <is>
-          <t>Calculadora Casio Hl-815L 8 Dígitos Rosado</t>
+          <t>Calculadora Casio Hl-815L 8 Dígitos</t>
         </is>
       </c>
       <c r="G1227" t="inlineStr">
@@ -86357,11 +86357,11 @@
         </is>
       </c>
       <c r="E1228" t="n">
-        <v>30551001</v>
+        <v>1001</v>
       </c>
       <c r="F1228" t="inlineStr">
         <is>
-          <t>Calculadora Casio Hl-815L 8 Dígitos Wengue</t>
+          <t>Calculadora De Escritorio Casio Ms-10S/Ms-10B/F -W</t>
         </is>
       </c>
       <c r="G1228" t="inlineStr">
@@ -86370,7 +86370,7 @@
         </is>
       </c>
       <c r="H1228" t="n">
-        <v>16.9</v>
+        <v>42.9</v>
       </c>
       <c r="I1228" t="n">
         <v>1</v>
@@ -86397,7 +86397,7 @@
         </is>
       </c>
       <c r="O1228" t="n">
-        <v>16.9</v>
+        <v>42.9</v>
       </c>
       <c r="P1228" t="inlineStr">
         <is>
@@ -86427,11 +86427,11 @@
         </is>
       </c>
       <c r="E1229" t="n">
-        <v>44595001</v>
+        <v>1691</v>
       </c>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Ms-20Uc-Bu Azul</t>
+          <t>Calculadora Casio Mx-120 S (B) 12 Dígitos</t>
         </is>
       </c>
       <c r="G1229" t="inlineStr">
@@ -86440,7 +86440,7 @@
         </is>
       </c>
       <c r="H1229" t="n">
-        <v>41.9</v>
+        <v>33.9</v>
       </c>
       <c r="I1229" t="n">
         <v>1</v>
@@ -86467,7 +86467,7 @@
         </is>
       </c>
       <c r="O1229" t="n">
-        <v>41.9</v>
+        <v>33.9</v>
       </c>
       <c r="P1229" t="inlineStr">
         <is>
@@ -86497,11 +86497,11 @@
         </is>
       </c>
       <c r="E1230" t="n">
-        <v>44595004</v>
+        <v>2780</v>
       </c>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-20Uc Verde Limón</t>
+          <t>Calculadora Financiera Casio Fc-100V</t>
         </is>
       </c>
       <c r="G1230" t="inlineStr">
@@ -86510,7 +86510,7 @@
         </is>
       </c>
       <c r="H1230" t="n">
-        <v>41.9</v>
+        <v>149</v>
       </c>
       <c r="I1230" t="n">
         <v>1</v>
@@ -86537,7 +86537,7 @@
         </is>
       </c>
       <c r="O1230" t="n">
-        <v>41.9</v>
+        <v>149</v>
       </c>
       <c r="P1230" t="inlineStr">
         <is>
@@ -86567,11 +86567,11 @@
         </is>
       </c>
       <c r="E1231" t="n">
-        <v>44596003</v>
+        <v>4624</v>
       </c>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-7Uc Verde Limón</t>
+          <t>Calculadora Científica Casio Fx-350Es Plus</t>
         </is>
       </c>
       <c r="G1231" t="inlineStr">
@@ -86580,7 +86580,7 @@
         </is>
       </c>
       <c r="H1231" t="n">
-        <v>29.9</v>
+        <v>61.9</v>
       </c>
       <c r="I1231" t="n">
         <v>1</v>
@@ -86607,7 +86607,7 @@
         </is>
       </c>
       <c r="O1231" t="n">
-        <v>29.9</v>
+        <v>61.9</v>
       </c>
       <c r="P1231" t="inlineStr">
         <is>
@@ -86637,11 +86637,11 @@
         </is>
       </c>
       <c r="E1232" t="n">
-        <v>924</v>
+        <v>5245</v>
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Ms-100 Bm/Fm</t>
+          <t>Calculadora De Escritorio Casio Mw-5V Bk</t>
         </is>
       </c>
       <c r="G1232" t="inlineStr">
@@ -86650,7 +86650,7 @@
         </is>
       </c>
       <c r="H1232" t="n">
-        <v>50.9</v>
+        <v>25.9</v>
       </c>
       <c r="I1232" t="n">
         <v>1</v>
@@ -86677,7 +86677,7 @@
         </is>
       </c>
       <c r="O1232" t="n">
-        <v>50.9</v>
+        <v>25.9</v>
       </c>
       <c r="P1232" t="inlineStr">
         <is>
@@ -86707,11 +86707,11 @@
         </is>
       </c>
       <c r="E1233" t="n">
-        <v>936</v>
+        <v>7673</v>
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>Calculadora Casio Hl-4 8 Dígitos</t>
+          <t>Calculadora Científica Casio Fx-95Es Plus</t>
         </is>
       </c>
       <c r="G1233" t="inlineStr">
@@ -86720,7 +86720,7 @@
         </is>
       </c>
       <c r="H1233" t="n">
-        <v>11.9</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I1233" t="n">
         <v>1</v>
@@ -86747,7 +86747,7 @@
         </is>
       </c>
       <c r="O1233" t="n">
-        <v>11.9</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="P1233" t="inlineStr">
         <is>
@@ -86777,11 +86777,11 @@
         </is>
       </c>
       <c r="E1234" t="n">
-        <v>1198</v>
+        <v>816</v>
       </c>
       <c r="F1234" t="inlineStr">
         <is>
-          <t>Calculadora Casio Lc-160Lv 8 Dígitos</t>
+          <t>Calculadora De Escritorio Casio Ms-8S / Ms-8B/8F</t>
         </is>
       </c>
       <c r="G1234" t="inlineStr">
@@ -86790,7 +86790,7 @@
         </is>
       </c>
       <c r="H1234" t="n">
-        <v>14.9</v>
+        <v>35.9</v>
       </c>
       <c r="I1234" t="n">
         <v>1</v>
@@ -86817,7 +86817,7 @@
         </is>
       </c>
       <c r="O1234" t="n">
-        <v>14.9</v>
+        <v>35.9</v>
       </c>
       <c r="P1234" t="inlineStr">
         <is>
@@ -86847,11 +86847,11 @@
         </is>
       </c>
       <c r="E1235" t="n">
-        <v>4935</v>
+        <v>954</v>
       </c>
       <c r="F1235" t="inlineStr">
         <is>
-          <t>Calculadora Casio Mw-8V 8 Dígitos</t>
+          <t>Calculadora Tipo Portátil Casio Hl-820Lv Con Tapa</t>
         </is>
       </c>
       <c r="G1235" t="inlineStr">
@@ -86860,7 +86860,7 @@
         </is>
       </c>
       <c r="H1235" t="n">
-        <v>28.9</v>
+        <v>16.9</v>
       </c>
       <c r="I1235" t="n">
         <v>1</v>
@@ -86887,709 +86887,9 @@
         </is>
       </c>
       <c r="O1235" t="n">
-        <v>28.9</v>
+        <v>16.9</v>
       </c>
       <c r="P1235" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1236" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1236" t="n">
-        <v>30567</v>
-      </c>
-      <c r="F1236" t="inlineStr">
-        <is>
-          <t>Calculadora De Escritorio Casio Mx-12S Blanco</t>
-        </is>
-      </c>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1236" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1236" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1236" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1236" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1236" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="P1236" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1237" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1237" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1237" t="n">
-        <v>955</v>
-      </c>
-      <c r="F1237" t="inlineStr">
-        <is>
-          <t>Calculadora Casio Hl-815L 8 Dígitos</t>
-        </is>
-      </c>
-      <c r="G1237" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1237" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1237" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1237" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1237" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1237" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P1237" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1238" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1238" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>Calculadora De Escritorio Casio Ms-10S/Ms-10B/F -W</t>
-        </is>
-      </c>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1238" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1238" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1238" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1238" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1238" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="P1238" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1239" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1239" t="n">
-        <v>1691</v>
-      </c>
-      <c r="F1239" t="inlineStr">
-        <is>
-          <t>Calculadora Casio Mx-120 S (B) 12 Dígitos</t>
-        </is>
-      </c>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1239" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1239" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1239" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1239" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1239" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="P1239" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1240" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1240" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1240" t="n">
-        <v>2780</v>
-      </c>
-      <c r="F1240" t="inlineStr">
-        <is>
-          <t>Calculadora Financiera Casio Fc-100V</t>
-        </is>
-      </c>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1240" t="n">
-        <v>149</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1240" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1240" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1240" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1240" t="n">
-        <v>149</v>
-      </c>
-      <c r="P1240" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1241" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1241" t="n">
-        <v>4624</v>
-      </c>
-      <c r="F1241" t="inlineStr">
-        <is>
-          <t>Calculadora Científica Casio Fx-350Es Plus</t>
-        </is>
-      </c>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1241" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1241" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1241" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1241" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1241" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="P1241" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1242" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1242" t="n">
-        <v>5245</v>
-      </c>
-      <c r="F1242" t="inlineStr">
-        <is>
-          <t>Calculadora De Escritorio Casio Mw-5V Bk</t>
-        </is>
-      </c>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1242" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1242" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1242" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1242" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1242" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="P1242" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1243" t="n">
-        <v>7673</v>
-      </c>
-      <c r="F1243" t="inlineStr">
-        <is>
-          <t>Calculadora Científica Casio Fx-95Es Plus</t>
-        </is>
-      </c>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1243" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1243" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1243" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1243" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1243" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="P1243" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1244" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1244" t="n">
-        <v>816</v>
-      </c>
-      <c r="F1244" t="inlineStr">
-        <is>
-          <t>Calculadora De Escritorio Casio Ms-8S / Ms-8B/8F</t>
-        </is>
-      </c>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1244" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1244" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1244" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1244" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1244" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="P1244" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1245" t="n">
-        <v>954</v>
-      </c>
-      <c r="F1245" t="inlineStr">
-        <is>
-          <t>Calculadora Tipo Portátil Casio Hl-820Lv Con Tapa</t>
-        </is>
-      </c>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1245" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1245" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1245" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1245" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1245" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P1245" t="inlineStr">
         <is>
           <t>Cantidad=1, sin conversión</t>
         </is>
